--- a/biology/Botanique/Vanda_falcata/Vanda_falcata.xlsx
+++ b/biology/Botanique/Vanda_falcata/Vanda_falcata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanda falcata, l'orchidée des samouraïs, est une espèce d'Orchidaceae originaire d'Asie, appartenant au genre Neofinetia.
 Le nom générique est un hommage au botaniste français Achille Eugène Finet (1862-1913), qui travailla sur les orchidées de Chine et du Japon. Elle fut découverte au Japon par Carl Peter Thunberg, qui en fit une description dans son livre Flora Japonica en 1784.
@@ -515,7 +527,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Samurai orchid
 Wind orchid
@@ -548,7 +562,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aerides thunbergii Miq.
 Angorchis falcata (Thunb.) Kuntze
